--- a/Temperatura_fbr3.xlsx
+++ b/Temperatura_fbr3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.46213331222538</v>
+        <v>149.0429963588715</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.45246996402744</v>
+        <v>72.59762640476231</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.44890333414082</v>
+        <v>22.89976842880253</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.47310144424443</v>
+        <v>13.34329990863802</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.45192023277286</v>
+        <v>-15.10997164770959</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.45507290840152</v>
+        <v>-24.45587922990319</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.45774870872503</v>
+        <v>-45.75726741790768</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.45150959014893</v>
+        <v>-47.4942824053764</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.45473181009294</v>
+        <v>-18.41118627578018</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.45027435064321</v>
+        <v>-35.23416106343268</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.45370189189913</v>
+        <v>-25.05642833709715</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4394453072548</v>
+        <v>-16.47099995128809</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.43060324430468</v>
+        <v>3.641371173858658</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19.43341150999072</v>
+        <v>-56.43801583290099</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.44321394681936</v>
+        <v>-15.20868131726979</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19.45315547227864</v>
+        <v>-34.42504441499707</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19.45377143621448</v>
+        <v>-21.4366173329949</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19.45452648878103</v>
+        <v>-7.029076403379406</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19.43629263162615</v>
+        <v>-33.01469397902486</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19.4494530653954</v>
+        <v>-0.9288858437537897</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.42093658447266</v>
+        <v>-5.880547896027565</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19.43211003780368</v>
+        <v>-4.745866158604599</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19.44972793102266</v>
+        <v>-30.71236153125761</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19.4510294032097</v>
+        <v>-33.23559818506237</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.41223029851915</v>
+        <v>-0.01870143532750035</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.44561488151555</v>
+        <v>-8.384757556319187</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.43279554605488</v>
+        <v>6.341149383783375</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19.44698589801794</v>
+        <v>-3.99053210318084</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19.44520423889162</v>
+        <v>-8.64949123919007</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19.40119593381883</v>
+        <v>24.11718803167344</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19.43574290037157</v>
+        <v>97.40048725128179</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19.45610282659533</v>
+        <v>86.501018652916</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19.45329124927525</v>
+        <v>179.4538644313812</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.43622308731085</v>
+        <v>82.37207330226903</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.45295015096667</v>
+        <v>24.09675856113438</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19.45150959014893</v>
+        <v>-9.33716943860054</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19.45754007577898</v>
+        <v>-4.505535907149294</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19.45109894752505</v>
+        <v>-49.52012155771251</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19.43683905124669</v>
+        <v>-50.27269371032713</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19.4440385437012</v>
+        <v>-96.71495047092435</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19.44650571107866</v>
+        <v>-13.99249571204183</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19.47762513637548</v>
+        <v>-28.1770614224672</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19.4517149114609</v>
+        <v>-7.583838030099855</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19.45260574102406</v>
+        <v>-42.22100687146184</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19.45164536714555</v>
+        <v>-32.05286960482596</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19.45630814790729</v>
+        <v>-51.21834075212476</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19.43889557600022</v>
+        <v>-14.81343137547373</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19.44335303545</v>
+        <v>-11.29744734346866</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19.43629263162615</v>
+        <v>-30.22298480749129</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19.44643616676331</v>
+        <v>3.852774301767397</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19.42669551610948</v>
+        <v>0.567045495510115</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19.45308592796329</v>
+        <v>-20.4533401933312</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19.45404630184174</v>
+        <v>12.5613668084145</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19.43711391687395</v>
+        <v>20.35799324750906</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19.41353508234027</v>
+        <v>7.602782613039039</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19.43540180206304</v>
+        <v>2.1755326533318</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19.45034389495851</v>
+        <v>31.6344085931778</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19.42943754911425</v>
+        <v>-13.64262488484383</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19.45541731834413</v>
+        <v>11.34847420930868</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19.45288060665132</v>
+        <v>13.66719096660614</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19.43656418561937</v>
+        <v>19.02034145832067</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19.45418207883836</v>
+        <v>-0.1074714422225611</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19.43759410381318</v>
+        <v>-22.0848701149225</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19.44458496332174</v>
+        <v>19.49174594402314</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.45109894752505</v>
+        <v>-2.190245863199209</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.43533225774769</v>
+        <v>12.53134353399281</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19.45212555408483</v>
+        <v>-4.57257579922674</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19.44972793102266</v>
+        <v>-23.80666690200565</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19.42971241474152</v>
+        <v>27.6320040917397</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19.43409701824191</v>
+        <v>24.12849726200108</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19.45527822971349</v>
+        <v>3.159887729883224</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19.43622308731085</v>
+        <v>-3.742797865867601</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19.45041343927386</v>
+        <v>-26.7398428714275</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19.45726852178575</v>
+        <v>-24.07472753524777</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19.45198977708822</v>
+        <v>-23.52222527086732</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19.40373264551164</v>
+        <v>-38.74108715534209</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19.43862071037296</v>
+        <v>-13.71795959234237</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19.46042119741441</v>
+        <v>-43.6070946204662</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19.39543700218201</v>
+        <v>-14.32488690674302</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19.45041343927386</v>
+        <v>-14.9602619856596</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19.47296566724782</v>
+        <v>-2.814172623157447</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19.44897287845617</v>
+        <v>-10.66125015139579</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19.45363565921787</v>
+        <v>-11.13046357721089</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19.44040568113331</v>
+        <v>11.77696985244756</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19.44746608495717</v>
+        <v>-12.40066524565219</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19.45459272146229</v>
+        <v>-24.49549548029896</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19.46268304347996</v>
+        <v>18.84307299852372</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19.48283433675772</v>
+        <v>-13.39605634272095</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19.43252068042756</v>
+        <v>-20.33017348527906</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19.40928294420246</v>
+        <v>-15.45381033346052</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19.45089362621309</v>
+        <v>-0.7565550303459077</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19.43635886430741</v>
+        <v>-23.89186241388319</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19.43526271343234</v>
+        <v>-15.75048783153295</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19.42971241474152</v>
+        <v>-59.73075371265409</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19.4554835510254</v>
+        <v>-42.94979486823078</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19.44767140626908</v>
+        <v>-4.528704926967578</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19.44191247463232</v>
+        <v>4.412129164934186</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19.4293680047989</v>
+        <v>-22.3001544779539</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19.45219509840013</v>
+        <v>-8.920051742196051</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19.45843421697617</v>
+        <v>-28.23429225444792</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>19.43827961206438</v>
+        <v>-15.23089099809522</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>19.45575841665271</v>
+        <v>19.08066287279132</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,359 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>19.45541731834413</v>
+        <v>-41.1773470520973</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-35.91318844676016</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-10.09366918921467</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.489859584569956</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-45.51545852184293</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>30.553262732029</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>18.23998469591146</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-9.241818386912314</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-3.182894927263249</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-2.99157685995101</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3.886980170011554</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.373742358684581</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>21.03634836912158</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-10.51229450702664</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-26.18473600685593</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>17.70338738203054</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-31.53196446895598</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-30.83785838782785</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-37.05636949300762</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-27.41996723353861</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-38.02799464821814</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-24.30399444520469</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.6155774927139532</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-37.97131271958349</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-11.45558863282201</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.53337203621868</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-14.32913697510958</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>7.688125078678183</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>73.63517460346225</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>24.76675180673601</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-6.451350250244104</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3.133975849151625</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-11.44016511112449</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-15.42515724763274</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7.339352058172267</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>30.15458504199984</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>10.4556974053383</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-11.11976989686485</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-21.52064756363629</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.011601927280481</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.668739281892783</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-5.870951608419375</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-14.67996755525468</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9.167331010103226</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>74.44411407947541</v>
       </c>
     </row>
   </sheetData>
